--- a/src/test/resources/testcases.xlsx
+++ b/src/test/resources/testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\MindTree\SDET JAVA\Comprehensive Hybrid\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MindTree\Comprehsive\Comprehensive\Comprehnsive Hybrid\Comprehensive Hybrid Final\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0394E9DE-7644-4021-8A35-A2970787191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA94CC-9D77-4D60-B0F3-D9005488E97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3149360F-ED20-4090-BF00-EFA881F76175}"/>
+    <workbookView xWindow="3540" yWindow="2616" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{3149360F-ED20-4090-BF00-EFA881F76175}"/>
   </bookViews>
   <sheets>
     <sheet name="TastCases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
   <si>
     <t>Project Name</t>
   </si>
@@ -153,12 +153,6 @@
     <t>its doesnot logged in to NOBROKER</t>
   </si>
   <si>
-    <t>nadfa</t>
-  </si>
-  <si>
-    <t>naadf</t>
-  </si>
-  <si>
     <t>To verify the all fan pages are working or not</t>
   </si>
   <si>
@@ -288,12 +282,6 @@
     <t>Taj Lands End, Mumbai, Byramji Jeejeebhoy Road, Mount Mary, Bandra West, Mumbai, Maharashtra, India</t>
   </si>
   <si>
-    <t>TAJ ESTATE AGENCY, Virar East, Virar, Maharashtra, India</t>
-  </si>
-  <si>
-    <t>Mahavir Nagar Kandivali West, Shravan Nagar, Kandivali West, Mumbai, Maharashtra</t>
-  </si>
-  <si>
     <t>TC005_verifying_footer_contains_PG_at_selected_city</t>
   </si>
   <si>
@@ -322,12 +310,6 @@
   </si>
   <si>
     <t>Powai</t>
-  </si>
-  <si>
-    <t>Thane West</t>
-  </si>
-  <si>
-    <t>Bavdhan</t>
   </si>
   <si>
     <t>TC006_NOBROKER_Login_and_verifying_details</t>
@@ -411,9 +393,6 @@
   </si>
   <si>
     <t>Pune</t>
-  </si>
-  <si>
-    <t>Gurgaon</t>
   </si>
   <si>
     <t>TC008_NOBROKER_androidAppDownload_verify</t>
@@ -641,14 +620,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -989,44 +968,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1193,10 +1172,10 @@
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1219,13 +1198,13 @@
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1247,21 +1226,21 @@
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>31</v>
@@ -1278,24 +1257,24 @@
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>31</v>
@@ -1312,21 +1291,21 @@
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>31</v>
@@ -1343,24 +1322,24 @@
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
@@ -1383,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1397,60 +1376,60 @@
         <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
@@ -1473,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1487,24 +1466,24 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>21</v>
@@ -1556,55 +1535,55 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
@@ -1627,13 +1606,13 @@
         <v>22</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1641,24 +1620,24 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
@@ -1678,24 +1657,24 @@
     </row>
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>21</v>
@@ -1718,13 +1697,13 @@
         <v>22</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1732,49 +1711,49 @@
         <v>23</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
@@ -1797,47 +1776,47 @@
         <v>22</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1873,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAAB990-9296-4CB8-BE2F-430A6DF6449E}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,30 +1912,32 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="6">
         <v>9390919247</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
+      <c r="D6" s="6">
+        <v>124541</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,323 +1945,190 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D12" s="6">
         <v>9390919247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="9">
+        <v>9390919247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9390919247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6">
-        <v>124541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6">
-        <v>9390919247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6">
-        <v>9160167494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
       <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="6">
-        <v>9390919247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="11">
-        <v>9390919247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="12">
+        <v>151</v>
+      </c>
+      <c r="D28" s="10">
         <v>9080</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="12">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="10">
         <v>10080</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.nobroker.com" xr:uid="{7D7A4816-DA6A-485E-B621-B5A009C54161}"/>
-    <hyperlink ref="D11" r:id="rId2" display="https://www.nobroker.com" xr:uid="{B24C376A-B7C6-42C9-951F-B24F464FAE5D}"/>
-    <hyperlink ref="D32" r:id="rId3" display="https://www.nobroker.com" xr:uid="{5A263FC0-5C9F-4DEA-A1A4-5B462B20AD76}"/>
-    <hyperlink ref="D35" r:id="rId4" xr:uid="{792C7474-F822-4E86-83E6-CC9BEE57BEE8}"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://www.nobroker.com" xr:uid="{B24C376A-B7C6-42C9-951F-B24F464FAE5D}"/>
+    <hyperlink ref="D12" r:id="rId3" display="https://www.nobroker.com" xr:uid="{5A263FC0-5C9F-4DEA-A1A4-5B462B20AD76}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{792C7474-F822-4E86-83E6-CC9BEE57BEE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
